--- a/ProgectsUniversity/Пукич/Laba2.xlsx
+++ b/ProgectsUniversity/Пукич/Laba2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Валера\3_kurs\3_kurs\ProgectsUniversity\Пукич\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53658431-3C71-4002-9018-9E820E793CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB1BBC-72C1-4039-AF0F-85C715B73B31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лебедев 16 вариант" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,6 +76,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +98,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,24 +113,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -150,19 +147,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -260,7 +349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$2</c:f>
+              <c:f>'Лебедев 16 вариант'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -283,48 +372,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$1:$G$1</c:f>
+              <c:f>'Лебедев 16 вариант'!$C$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$G$2</c:f>
+              <c:f>'Лебедев 16 вариант'!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.25</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.21</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.18</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,7 +430,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$3</c:f>
+              <c:f>'Лебедев 16 вариант'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -364,48 +453,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$1:$G$1</c:f>
+              <c:f>'Лебедев 16 вариант'!$C$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$3:$G$3</c:f>
+              <c:f>'Лебедев 16 вариант'!$C$3:$G$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.248985233671799</c:v>
+                  <c:v>0.83798431113706184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2112802077591891</c:v>
+                  <c:v>0.63094310883196647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1793759550639038</c:v>
+                  <c:v>0.48305653575689866</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1520294527536592</c:v>
+                  <c:v>0.37214160595059775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1283291507514472</c:v>
+                  <c:v>0.28587443832347481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,48 +762,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$1:$G$1</c:f>
+              <c:f>'Лебедев 16 вариант'!$C$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$G$2</c:f>
+              <c:f>'Лебедев 16 вариант'!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.25</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.21</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.18</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,48 +832,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$1:$G$1</c:f>
+              <c:f>'Лебедев 16 вариант'!$C$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$4:$G$4</c:f>
+              <c:f>'Лебедев 16 вариант'!$C$4:$G$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2465861762437185</c:v>
+                  <c:v>0.81761439550113635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2127779563272183</c:v>
+                  <c:v>0.64668511483783475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1816774088199475</c:v>
+                  <c:v>0.50216646723540337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1528827993467807</c:v>
+                  <c:v>0.37697872043992775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1260756592623331</c:v>
+                  <c:v>0.26655530198569677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,16 +2165,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2112,16 +2201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2414,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,276 +2513,277 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4">
-        <v>14</v>
-      </c>
-      <c r="G1" s="4">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="D1" s="5">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.21</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I2" s="6" t="s">
+        <v>0.84</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <f>SLOPE(C2:G2,C5:G5)</f>
-        <v>4.9770634204645123</v>
+        <v>6.2112360691528528</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <f>J2*C5+J3</f>
-        <v>1.248985233671799</v>
-      </c>
-      <c r="D3" s="5">
+        <v>0.83798431113706184</v>
+      </c>
+      <c r="D3" s="9">
         <f>J2*D5+J3</f>
-        <v>1.2112802077591891</v>
-      </c>
-      <c r="E3" s="5">
+        <v>0.63094310883196647</v>
+      </c>
+      <c r="E3" s="9">
         <f>J2*E5+J3</f>
-        <v>1.1793759550639038</v>
-      </c>
-      <c r="F3" s="5">
+        <v>0.48305653575689866</v>
+      </c>
+      <c r="F3" s="9">
         <f>J2*F5+J3</f>
-        <v>1.1520294527536592</v>
-      </c>
-      <c r="G3" s="5">
+        <v>0.37214160595059775</v>
+      </c>
+      <c r="G3" s="9">
         <f>J2*G5+J3</f>
-        <v>1.1283291507514472</v>
-      </c>
-      <c r="I3" s="6" t="s">
+        <v>0.28587443832347481</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <f>INTERCEPT(C2:G2,C5:G5)</f>
-        <v>0.79652492272047981</v>
+        <v>-0.40426290269350884</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <f>J6*C6+J7</f>
-        <v>1.2465861762437185</v>
-      </c>
-      <c r="D4" s="5">
+        <v>0.81761439550113635</v>
+      </c>
+      <c r="D4" s="9">
         <f>J6*D6+J7</f>
-        <v>1.2127779563272183</v>
-      </c>
-      <c r="E4" s="5">
+        <v>0.64668511483783475</v>
+      </c>
+      <c r="E4" s="9">
         <f>J6*E6+J7</f>
-        <v>1.1816774088199475</v>
-      </c>
-      <c r="F4" s="5">
+        <v>0.50216646723540337</v>
+      </c>
+      <c r="F4" s="9">
         <f>J6*F6+J7</f>
-        <v>1.1528827993467807</v>
-      </c>
-      <c r="G4" s="5">
+        <v>0.37697872043992775</v>
+      </c>
+      <c r="G4" s="9">
         <f>J6*G6+J7</f>
-        <v>1.1260756592623331</v>
-      </c>
-      <c r="I4" s="6" t="s">
+        <v>0.26655530198569677</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <f>C11</f>
-        <v>1.4119865707952041E-3</v>
+        <v>2.6796119826853673E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <f>1/C1</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="D5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="9">
         <f t="shared" ref="D5:G5" si="0">1/D1</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E5" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F5" s="5">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="G5" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="10">
         <f>LN(C1)</f>
-        <v>2.3978952727983707</v>
-      </c>
-      <c r="D6" s="3">
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="D6" s="11">
         <f t="shared" ref="D6:G6" si="1">LN(D1)</f>
-        <v>2.4849066497880004</v>
-      </c>
-      <c r="E6" s="3">
+        <v>1.791759469228055</v>
+      </c>
+      <c r="E6" s="11">
         <f t="shared" si="1"/>
-        <v>2.5649493574615367</v>
-      </c>
-      <c r="F6" s="3">
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="F6" s="11">
         <f t="shared" si="1"/>
-        <v>2.6390573296152584</v>
-      </c>
-      <c r="G6" s="3">
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="G6" s="11">
         <f t="shared" si="1"/>
-        <v>2.7080502011022101</v>
-      </c>
-      <c r="I6" s="6" t="s">
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="10">
         <f>SLOPE(C2:G2,C6:G6)</f>
-        <v>-0.3885494183195074</v>
+        <v>-0.93751547358973242</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="10">
         <f>INTERCEPT(C2:G2,C6:G6)</f>
-        <v>2.1782869896806218</v>
+        <v>2.3264873421900623</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I8" s="6" t="s">
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="10">
         <f>C15</f>
-        <v>3.0297167076554681E-3</v>
+        <v>1.9335030486606564E-2</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <f>(C2-C3)^2</f>
-        <v>1.0297507008504721E-6</v>
-      </c>
-      <c r="D9" s="2">
+        <v>4.0630015921727928E-6</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" ref="D9:G9" si="2">(D2-D3)^2</f>
-        <v>1.6389319066880629E-6</v>
-      </c>
-      <c r="E9" s="2">
+        <v>8.8945426893315178E-7</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="2"/>
-        <v>3.8943208226722963E-7</v>
-      </c>
-      <c r="F9" s="2">
+        <v>9.3424108332001974E-6</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" si="2"/>
-        <v>4.1186784793352696E-6</v>
-      </c>
-      <c r="G9" s="2">
+        <v>4.5864760476357271E-6</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>2.7917372113889642E-6</v>
+        <v>1.7020259146813163E-5</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <f>SUM(C9:G9)/5</f>
-        <v>1.9937060761059999E-6</v>
+        <v>7.1803203777510059E-6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <f>SQRT(C10)</f>
-        <v>1.4119865707952041E-3</v>
+        <v>2.6796119826853673E-3</v>
       </c>
     </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <f>(C2-C4)^2</f>
-        <v>1.1654192638952066E-5</v>
-      </c>
-      <c r="D13" s="2">
+        <v>5.0111528877954314E-4</v>
+      </c>
+      <c r="D13" s="7">
         <f t="shared" ref="D13:G13" si="3">(D2-D4)^2</f>
-        <v>7.7170413559323751E-6</v>
-      </c>
-      <c r="E13" s="2">
+        <v>2.7839305715173326E-4</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" si="3"/>
-        <v>2.8137003492380037E-6</v>
-      </c>
-      <c r="F13" s="2">
+        <v>4.9135226969821181E-4</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" si="3"/>
-        <v>8.3105320737999092E-6</v>
-      </c>
-      <c r="G13" s="2">
+        <v>4.8702538978665432E-5</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="3"/>
-        <v>1.5400450225311102E-5</v>
+        <v>5.496538649818729E-4</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <f>SUM(C13:G13)/5</f>
-        <v>9.17918332864669E-6</v>
+        <v>3.7384340391800528E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <f>SQRT(C14)</f>
-        <v>3.0297167076554681E-3</v>
+        <v>1.9335030486606564E-2</v>
       </c>
     </row>
   </sheetData>
